--- a/wcsm8seleniumproject/data/ActiTimeTestData.xlsx
+++ b/wcsm8seleniumproject/data/ActiTimeTestData.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="3800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="createusers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -57,6 +59,24 @@
   </si>
   <si>
     <t>123manager</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
 </sst>
 </file>
@@ -94,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,16 +131,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -541,4 +578,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>